--- a/outputs-r202/f__Fibrobacteraceae.xlsx
+++ b/outputs-r202/f__Fibrobacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,38 +645,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG690.fasta</t>
+          <t>RUG480.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -685,52 +685,99 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>g__Fibrobacter</t>
+          <t>g__Fibrobacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RUG690.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>RUG831.fasta</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>g__Fibrobacter</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>g__Fibrobacter</t>
         </is>

--- a/outputs-r202/f__Fibrobacteraceae.xlsx
+++ b/outputs-r202/f__Fibrobacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>g__Fibro-01</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>g__Fibro-01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>g__Fibro-01</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>g__Fibro-01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>g__Fibrobacter</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>g__Fibrobacter</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>g__Fibrobacter</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>g__Fibrobacter</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -789,6 +824,11 @@
           <t>g__CAIRAY01</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>g__CAIRAY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -831,6 +871,11 @@
           <t>g__Fibro-01</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>g__Fibro-01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -873,6 +918,11 @@
           <t>g__Fibro-01</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>g__Fibro-01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -915,6 +965,11 @@
           <t>g__Fibrobacter</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -957,6 +1012,11 @@
           <t>g__CAIRAY01</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>g__CAIRAY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -999,6 +1059,11 @@
           <t>g__Fibro-01</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>g__Fibro-01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,6 +1106,11 @@
           <t>g__Fibro-01</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>g__Fibro-01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1079,6 +1149,11 @@
         <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
+        <is>
+          <t>g__Fibrobacter</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>g__Fibrobacter</t>
         </is>

--- a/outputs-r202/f__Fibrobacteraceae.xlsx
+++ b/outputs-r202/f__Fibrobacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,101 +504,101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG129.fasta</t>
+          <t>RUG181.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.216058556605325</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2839414433944649</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.407407360217866e-14</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2839414433944649</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2160585566053251</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2839414433944649</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>g__Fibro-01</t>
+          <t>g__Fibrobacter</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>g__Fibro-01(reject)</t>
+          <t>g__Fibrobacter</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG130.fasta</t>
+          <t>RUG229.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.216058556605325</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2839414433944649</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.407407360217866e-14</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2839414433944649</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2160585566053251</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.407407360217877e-14</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2839414433944649</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>g__Fibro-01</t>
+          <t>g__Fibrobacter</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>g__Fibro-01(reject)</t>
+          <t>g__Fibrobacter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG181.fasta</t>
+          <t>RUG438.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -645,38 +645,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG229.fasta</t>
+          <t>RUG480.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.43191710155961e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.3333333333332847</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -685,14 +685,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>g__Fibrobacter</t>
+          <t>g__Fibrobacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG438.fasta</t>
+          <t>RUG690.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -739,38 +739,38 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG480.fasta</t>
+          <t>RUG831.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.43191710155961e-14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.43191710155961e-14</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3333333333332847</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2.43191710155961e-14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.43191710155961e-14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3333333333332847</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.43191710155961e-14</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3333333333332847</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.43191710155961e-14</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3333333333332847</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -778,382 +778,6 @@
         </is>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>g__Fibrobacter(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG486.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.173194682738271</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09337294778906555</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09337294778906555</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.09337294778906552</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.09337294778906552</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.09337294778906553</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1731946827382705</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.09337294778906552</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.09337294778906551</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.173194682738271</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>g__CAIRAY01</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>g__CAIRAY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG540.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.216058556605325</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2839414433944649</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.407407360217866e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2839414433944649</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.407407360217877e-14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8.407407360217877e-14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2160585566053251</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.407407360217877e-14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.407407360217877e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2839414433944649</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>g__Fibro-01</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>g__Fibro-01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG560.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.08884018537018287</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2091151962741351</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.08884018537018293</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0888401853701829</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0888401853701829</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0888401853701829</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1690035061345846</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.08884018537018287</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.08884018537018287</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2091151962741351</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>g__Fibro-01</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>g__Fibro-01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG690.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>g__Fibrobacter</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>g__Fibrobacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG702.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>g__CAIRAY01</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>g__CAIRAY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG714.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2901728506296577</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.354913574684656</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.718102606742643e-13</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.354913574684656</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.718102606742647e-13</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.718102606742648e-13</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.718102606742648e-13</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.718102606742648e-13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.718102606742648e-13</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.354913574684656</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>g__Fibro-01</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>g__Fibro-01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG752.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.08884018537018287</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2091151962741351</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.08884018537018293</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0888401853701829</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0888401853701829</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0888401853701829</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1690035061345846</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.08884018537018287</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.08884018537018287</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.2091151962741351</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>g__Fibro-01</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>g__Fibro-01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG831.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>g__Fibrobacter</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
         <is>
           <t>g__Fibrobacter</t>
         </is>
